--- a/biology/Botanique/Pin_de_Bosnie/Pin_de_Bosnie.xlsx
+++ b/biology/Botanique/Pin_de_Bosnie/Pin_de_Bosnie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pinus heldreichii
 Le pin de Bosnie (Pinus heldreichii) est une espèce d'arbres de la famille des Pinaceae.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre à feuilles persistantes atteint 25  à   35 mètres de hauteur et 2 mètres de diamètre.
 Un spécimen remarquable dans les montagnes de Pirin en Bulgarie, connu sous le nom de (Bajkuševa mura (en), mesure 24 m de haut, 2,2 m de diamètre et est estimé avoir 1 300 ans.
-Un autre exemplaire dénommé « Patriarca del Pollino » vieux de plus de 1 000 ans se trouve dans le massif du Pollino, aux confins entre la Basilicate et la Calabre[1].
+Un autre exemplaire dénommé « Patriarca del Pollino » vieux de plus de 1 000 ans se trouve dans le massif du Pollino, aux confins entre la Basilicate et la Calabre.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce de pin que l'on rencontre dans les montagnes de l'Europe du sud-est, en Bulgarie du sud-ouest, en Bosnie-Herzégovine, en Albanie, en Macédoine du Nord, en Serbie, au nord de la Grèce (au sud du mont Olympe), et sporadiquement en Italie méridionale (mont Pollino), poussant entre 900 et 2 500 m d'altitude.
 </t>
@@ -576,7 +592,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Pinus leucodermis</t>
         </is>
@@ -606,7 +624,9 @@
           <t>Culture et utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Croit naturellement sur les sols secs de calcaire décomposé ou sur des sols légèrement acides. Extrêmement tolérant aux sols secs et à la sécheresse qu'il peut supporter plusieurs mois. Croissance lente les premières années. 
 </t>
